--- a/report/reliability/comb/Campus CECA-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Campus CECA-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7806288314439117</v>
+        <v>0.7198448651288271</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7916863685334287</v>
+        <v>0.7452523841265576</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8951871526693446</v>
+        <v>0.8792389777575247</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2405281506600831</v>
+        <v>0.1836967314768624</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.8004539739420395</v>
+        <v>2.9254538126739393</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.02289449648533093</v>
+        <v>0.02779592449139148</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4166666666666665</v>
+        <v>1.8388969521044993</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7479006256929791</v>
+        <v>0.5937245603110625</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.21164821160812164</v>
+        <v>0.10033632617233446</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7575112889477503</v>
+        <v>0.7187605895923488</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7673035496482828</v>
+        <v>0.7346019055939411</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8723891844982123</v>
+        <v>0.8702599746501087</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.23063172114914698</v>
+        <v>0.18742813552458415</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.2974441530522483</v>
+        <v>2.7679245671975354</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.025439684357254657</v>
+        <v>0.028431314934861326</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.0444969998595412</v>
+        <v>0.06540312289743962</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.21093830713245373</v>
+        <v>0.10245820473523262</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7584633068380259</v>
+        <v>0.6942359573769784</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.769260615503046</v>
+        <v>0.718124791559567</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8727519845531813</v>
+        <v>0.8618551065357202</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.232588149933541</v>
+        <v>0.17512559427496185</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.3338938524957404</v>
+        <v>2.5476692169305277</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02536281023193009</v>
+        <v>0.030300174325463336</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.044601593089943534</v>
+        <v>0.06574683264081284</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.21235811608378952</v>
+        <v>0.09706777971597338</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7529946172032219</v>
+        <v>0.696699115560101</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7617649630871866</v>
+        <v>0.7195688757497818</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.87004396070639</v>
+        <v>0.8638584943780927</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.22521763861014374</v>
+        <v>0.17616016168037535</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.197535395962637</v>
+        <v>2.5659379916322607</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.025896994660193455</v>
+        <v>0.03004245605655603</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04551597194490463</v>
+        <v>0.06582325660083421</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1972311122813322</v>
+        <v>0.09876982094842304</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7498704124510512</v>
+        <v>0.7127022350187684</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7606143037621015</v>
+        <v>0.7353762552536703</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8682258550046877</v>
+        <v>0.8612871955258177</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22411501492064506</v>
+        <v>0.18803435333336002</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.1773590307008663</v>
+        <v>2.7789503771046995</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.026237191320856338</v>
+        <v>0.028825936446060112</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.045118347001459926</v>
+        <v>0.05071380312287513</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.20210181877557473</v>
+        <v>0.11350286447107372</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7843513387329233</v>
+        <v>0.7129931456038655</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7965676050524241</v>
+        <v>0.7322355656494381</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8648269842662198</v>
+        <v>0.861711027137958</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.26251897236946203</v>
+        <v>0.18559181237674277</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.9156379457543986</v>
+        <v>2.734625931279517</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.022173762824048784</v>
+        <v>0.027495206612536283</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03519459109348766</v>
+        <v>0.05162635200437791</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.22865742322114618</v>
+        <v>0.11350286447107372</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7841017579354852</v>
+        <v>0.7115979138905675</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7942989348517706</v>
+        <v>0.7290846788251166</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8635815839816754</v>
+        <v>0.8597048466638043</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2598286448451293</v>
+        <v>0.18318395092798534</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.8614235384702247</v>
+        <v>2.691190279173884</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02211231689584025</v>
+        <v>0.02752841784507825</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03613955732697132</v>
+        <v>0.05228506190494527</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.22865742322114618</v>
+        <v>0.11350286447107372</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7729341567281874</v>
+        <v>0.7209125661406253</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7866403675368177</v>
+        <v>0.7501715770052882</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8878062033033103</v>
+        <v>0.8851830176774935</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2510343662817648</v>
+        <v>0.2001464861032103</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.68692220948853</v>
+        <v>3.002747117453357</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.023862860225356587</v>
+        <v>0.028263490126312817</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04650778493185749</v>
+        <v>0.06784208496329089</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.21093830713245373</v>
+        <v>0.10247624811149769</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7811895218658782</v>
+        <v>0.7082508716860284</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7893971973069288</v>
+        <v>0.737341808384232</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8894539672513287</v>
+        <v>0.8692748332547533</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2541500561046089</v>
+        <v>0.18958505722249006</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.748274890991747</v>
+        <v>2.807229440850107</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.022926936806462222</v>
+        <v>0.02885927190956696</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04516244821268612</v>
+        <v>0.06633512083074522</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2131971147569713</v>
+        <v>0.10033632617233446</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7664741636571739</v>
+        <v>0.7200791831854845</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7789285740589347</v>
+        <v>0.7399897999088768</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8941247917334638</v>
+        <v>0.8747088879851451</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24260289490909467</v>
+        <v>0.1917016297393438</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.5234249326576754</v>
+        <v>2.846002963151215</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.024642641678738714</v>
+        <v>0.027460748150504245</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05049576100180192</v>
+        <v>0.06664199232239067</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2131971147569713</v>
+        <v>0.09706777971597338</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7612537003672897</v>
+        <v>0.6932430792199912</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.774569418491405</v>
+        <v>0.7291855129396715</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8895590377654047</v>
+        <v>0.8758078536523786</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2380137155213693</v>
+        <v>0.18326035714218464</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.43595537618694</v>
+        <v>2.6925646439927453</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.025162658553013174</v>
+        <v>0.030758352277668467</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04950083349822426</v>
+        <v>0.07163432566128224</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.20210181877557473</v>
+        <v>0.09876982094842304</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7545063095619736</v>
+        <v>0.6897524770096911</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7680677695403875</v>
+        <v>0.7265479374896614</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8683966363701995</v>
+        <v>0.8727001622343773</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23139294683040454</v>
+        <v>0.18127567079860396</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.3116042906944507</v>
+        <v>2.656948098397292</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02577295684217624</v>
+        <v>0.031022608434238874</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.045308015931724614</v>
+        <v>0.0704663608080486</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.20210181877557473</v>
+        <v>0.09706777971597338</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7574901273404914</v>
+        <v>0.6748731422848204</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7708987949189743</v>
+        <v>0.7143243201612082</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8714603466523401</v>
+        <v>0.8494845769676774</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23424368644568652</v>
+        <v>0.17244078785008846</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.364883194945794</v>
+        <v>2.50047298588492</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.025464327588226785</v>
+        <v>0.03254611208005892</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04582455995165841</v>
+        <v>0.0668298458895206</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2105718121224453</v>
+        <v>0.09652768217105392</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6797777366600002</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7167153028764267</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8517860172448054</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.17412351222528077</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.530017717701795</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.031997258202571155</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06757009881309738</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.09652768217105392</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>213.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6061121588868678</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6334876400848338</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6134339385135733</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.513034643050553</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4178403755868545</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1732317215763755</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5958821172401026</v>
+        <v>0.3526825179809237</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.617219454623463</v>
+        <v>0.45831991229210317</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5960855507424281</v>
+        <v>0.4161270489817029</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4873206028911973</v>
+        <v>0.32822762773376185</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.84037558685446</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3256767050052738</v>
+        <v>0.2125037149024873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.651941892137517</v>
+        <v>0.5386494426852475</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6785070650443563</v>
+        <v>0.5841244730212776</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6631354382207978</v>
+        <v>0.5599237709232201</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5690574973958435</v>
+        <v>0.4195208995855452</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.431924882629108</v>
+        <v>3.4339622641509435</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1415458544127743</v>
+        <v>1.1521162718157083</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6667200227220841</v>
+        <v>0.5296428857185814</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6876756516128784</v>
+        <v>0.5735450898400376</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6753883525540849</v>
+        <v>0.5455671329835969</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5725450603468651</v>
+        <v>0.39155037151872335</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8215962441314555</v>
+        <v>3.858490566037736</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.312531504162772</v>
+        <v>1.3021213406179046</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.401014228950548</v>
+        <v>0.42484003695985373</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.36833732086884863</v>
+        <v>0.4521207893961249</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.3781341164360353</v>
+        <v>0.4733801829386947</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.2474434366173769</v>
+        <v>0.3836452528711422</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.647887323943662</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4993576443713441</v>
+        <v>0.37635563783097137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.4241130369189385</v>
+        <v>0.4590252009290139</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.3907080544558789</v>
+        <v>0.4770979697912474</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4018900002370461</v>
+        <v>0.5001309453737369</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.2630891067003273</v>
+        <v>0.2852365734533811</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.6854460093896714</v>
+        <v>0.6509433962264151</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.5899520620356025</v>
+        <v>1.5022413133732784</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.45754625743317723</v>
+        <v>0.48481077770893805</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.46383463887795734</v>
+        <v>0.5017205209952066</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.40004699507342123</v>
+        <v>0.5264064948573899</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3389378849522532</v>
+        <v>0.3033340178439472</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.591549295774648</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.23139893741928</v>
+        <v>1.5930132260389342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4431319941584721</v>
+        <v>0.24294074796589094</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4379269133923944</v>
+        <v>0.3282633268047087</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.37075600430999095</v>
+        <v>0.23333764128748763</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.2863266776464118</v>
+        <v>0.21556018982053218</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.704225352112676</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5727127704736306</v>
+        <v>0.22232341928623398</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5485283364539104</v>
+        <v>0.44197375337373673</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5339443924743932</v>
+        <v>0.4362634459713254</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4515609168774248</v>
+        <v>0.38350630029557786</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.41158232568357367</v>
+        <v>0.30158670374296326</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3568075117370892</v>
+        <v>2.6037735849056602</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5340208436075935</v>
+        <v>1.2212901676553907</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5755438861057474</v>
+        <v>0.43162238607595227</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5721045452949525</v>
+        <v>0.41461958635472745</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5036683773840336</v>
+        <v>0.34879957938044703</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4574444479744106</v>
+        <v>0.24587311038697762</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2863849765258215</v>
+        <v>2.7169811320754715</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3898732744457365</v>
+        <v>1.5653518416854106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6287601669116833</v>
+        <v>0.5722081490570998</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.627157861735916</v>
+        <v>0.5009391986635608</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.615993109670518</v>
+        <v>0.42304201878136605</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5212070193238273</v>
+        <v>0.41433886209467247</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.2347417840375585</v>
+        <v>1.3632075471698113</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3809056892607299</v>
+        <v>1.534798594113421</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
+        <v>28</v>
+      </c>
+      <c r="B38" t="n" s="84">
+        <v>212.0</v>
+      </c>
+      <c r="C38" t="n" s="85">
+        <v>0.5780430625579734</v>
+      </c>
+      <c r="D38" t="n" s="86">
+        <v>0.5212344034162395</v>
+      </c>
+      <c r="E38" t="n" s="87">
+        <v>0.4555910350523862</v>
+      </c>
+      <c r="F38" t="n" s="88">
+        <v>0.4382986268603356</v>
+      </c>
+      <c r="G38" t="n" s="89">
+        <v>2.292452830188679</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3903320966577342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
         <v>29</v>
       </c>
-      <c r="B38" t="n" s="84">
-        <v>213.0</v>
-      </c>
-      <c r="C38" t="n" s="85">
-        <v>0.6042221999155186</v>
-      </c>
-      <c r="D38" t="n" s="86">
-        <v>0.6034532622465718</v>
-      </c>
-      <c r="E38" t="n" s="87">
-        <v>0.588036600615756</v>
-      </c>
-      <c r="F38" t="n" s="88">
-        <v>0.49592340875689467</v>
-      </c>
-      <c r="G38" t="n" s="89">
-        <v>1.9812206572769953</v>
-      </c>
-      <c r="H38" t="n" s="90">
-        <v>1.3386928336879564</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="n" s="84">
+        <v>212.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.659924229700506</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6115790359502523</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.603361682796837</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5391155980890083</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.240566037735849</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3815492575614474</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>212.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.633073624691106</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5943716641923364</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.582783339809855</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5103961423978375</v>
+      </c>
+      <c r="G40" t="n" s="89">
+        <v>1.9858490566037736</v>
+      </c>
+      <c r="H40" t="n" s="90">
+        <v>1.340151981141821</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.051643192488262914</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.046948356807511735</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3051643192488263</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4835680751173709</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.09859154929577464</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.051643192488262914</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.03286384976525822</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2676056338028169</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.2112676056338028</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4225352112676056</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.03286384976525822</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06572769953051644</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3286384976525822</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4413145539906103</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11737089201877934</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.03286384976525822</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.023474178403755867</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.046948356807511735</v>
+        <v>0.014150943396226415</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.352112676056338</v>
+        <v>0.30660377358490565</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.07511737089201878</v>
+        <v>0.4858490566037736</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4694835680751174</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8309859154929577</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.009389671361502348</v>
+        <v>0.014150943396226415</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.009389671361502348</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.018779342723004695</v>
+        <v>0.2688679245283019</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09389671361502347</v>
+        <v>0.21226415094339623</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03755868544600939</v>
+        <v>0.42452830188679247</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.8309859154929577</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.009389671361502348</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.04225352112676056</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.03755868544600939</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.07981220657276995</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.056338028169014086</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.20187793427230047</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.07981220657276995</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.43661971830985913</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.20657276995305165</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.018779342723004695</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.056338028169014086</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.2347417840375587</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.2112676056338028</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.11267605633802817</v>
+        <v>0.04245283018867924</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.215962441314554</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.16901408450704225</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4694835680751174</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1596244131455399</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.046948356807511735</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.19248826291079812</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.13145539906103287</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.18309859154929578</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13615023474178403</v>
+        <v>0.2028301886792453</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.06572769953051644</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4413145539906103</v>
+        <v>0.4386792452830189</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.17370892018779344</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.19248826291079812</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.06572769953051644</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.27230046948356806</v>
+        <v>0.21226415094339623</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2535211267605634</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.215962441314554</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.22065727699530516</v>
+        <v>0.4669811320754717</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.0892018779342723</v>
+        <v>0.16037735849056603</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3286384976525822</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.2112676056338028</v>
+        <v>0.19339622641509435</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.15023474178403756</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.18396226415094338</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.0660377358490566</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.44339622641509435</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.17452830188679244</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.19339622641509435</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.06132075471698113</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.27358490566037735</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.25471698113207547</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.2169811320754717</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.22169811320754718</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.08490566037735849</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.21226415094339623</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8506464602818031</v>
+        <v>0.8713174998481443</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8524540057068466</v>
+        <v>0.9864087382607359</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.872763027505112</v>
+        <v>0.9797912367731938</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5908994604490972</v>
+        <v>0.9603052190961027</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.777547603313038</v>
+        <v>72.57668619618083</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.01723226549032887</v>
+        <v>0.0024302304289818303</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6279342723004695</v>
+        <v>0.5031446540880503</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.031236872025787</v>
+        <v>1.143928987859671</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5690608507554906</v>
+        <v>0.9603627585276693</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8067457226734681</v>
+        <v>0.9799863024122974</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8100942424131607</v>
+        <v>0.9808459960633131</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7733350317497415</v>
+        <v>0.9624119537131763</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5871050020271742</v>
+        <v>0.9624119537131763</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.265769783429155</v>
+        <v>51.20840526635969</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.0233275587564849</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.024103744971612773</v>
-      </c>
+        <v>0.002687043516427977</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5691151173128974</v>
+        <v>0.9624119537131764</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8154294005289451</v>
+        <v>0.6002195697367498</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8175731590675932</v>
+        <v>0.9786230633405588</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7751808462566622</v>
+        <v>0.9581409450474623</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5990189057852228</v>
+        <v>0.9581409450474623</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.481649492415001</v>
+        <v>45.7793873337016</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.02221029681354515</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.019320091041735397</v>
-      </c>
+        <v>0.007788256935360221</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5690065841980839</v>
+        <v>0.9581409450474623</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.812876502878341</v>
+        <v>0.6233286282561272</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8148996247149755</v>
+        <v>0.9797806598294592</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7693750160199191</v>
+        <v>0.9603627585276693</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.594730096575958</v>
+        <v>0.9603627585276693</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.40247418980195</v>
+        <v>48.4575980999113</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.022486164810899628</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0174070532424148</v>
-      </c>
+        <v>0.007626320847860317</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5691151173128974</v>
+        <v>0.9603627585276693</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8061531215802522</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8073153832993267</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7671260263226527</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5827438374080338</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.189827901795888</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02320323802875486</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.022040395759105453</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5690065841980839</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>212.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9748225874421732</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9859679657772271</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9748739522111933</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9683541692776088</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.37635563783097137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8308709670331526</v>
+        <v>0.9898091749636438</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8359892144311396</v>
+        <v>0.9874108550635392</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7795443616344965</v>
+        <v>0.9784542453488433</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7006553352605862</v>
+        <v>0.9683063933152453</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4178403755868545</v>
+        <v>0.6509433962264151</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1732317215763755</v>
+        <v>1.5022413133732784</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8344758095437</v>
+        <v>0.9905597305350331</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8252568840821748</v>
+        <v>0.9866602523095552</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7671594114071988</v>
+        <v>0.9766488569759066</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6814569779128179</v>
+        <v>0.9677209775412586</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.84037558685446</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3256767050052738</v>
+        <v>1.5930132260389342</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>213.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8193383466174047</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8291203463169119</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7759484363776636</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.687384295699499</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.431924882629108</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1415458544127743</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>213.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8446165863311106</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.839917856155076</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7885588947413255</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7011225319603565</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8215962441314555</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.312531504162772</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.051643192488262914</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.046948356807511735</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3051643192488263</v>
+        <v>0.04245283018867924</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4835680751173709</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.09859154929577464</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.051643192488262914</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03286384976525822</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2676056338028169</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2112676056338028</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4225352112676056</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.03286384976525822</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06572769953051644</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3286384976525822</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4413145539906103</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11737089201877934</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.03286384976525822</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.023474178403755867</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.046948356807511735</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.352112676056338</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07511737089201878</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4694835680751174</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7509567387687188</v>
+        <v>0.6309969206208081</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.764904835205275</v>
+        <v>0.7549234145175986</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6193084201187068</v>
+        <v>0.6864215158471193</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6193084201187069</v>
+        <v>0.506607930800041</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.253596627021901</v>
+        <v>3.080357158688292</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.032554194391685436</v>
+        <v>0.024757764629485354</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.647887323943662</v>
+        <v>2.089622641509434</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2637760677858918</v>
+        <v>0.8749255676765524</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6193084201187069</v>
+        <v>0.49993020021765</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6193084201187068</v>
+        <v>0.7456749374004097</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6193084201187068</v>
+        <v>0.7599888027934287</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.38354291922992856</v>
+        <v>0.6128886614132916</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6193084201187068</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6193084201187068</v>
-      </c>
+        <v>0.6128886614132916</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.166472279788372</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03329773936550411</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6193084201187068</v>
+        <v>0.6128886614132915</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.38354291922992856</v>
+        <v>0.20358098175771744</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6193084201187068</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.38354291922992856</v>
-      </c>
+        <v>0.5785408734092776</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.407004930769181</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4070049307691812</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.3727093255500835</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.028003593528406687</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6193084201187068</v>
+        <v>0.4070049307691813</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.29957446808510624</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6666046195284376</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.4999302002176499</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.49993020021765</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.9994416796824732</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.029830416447835253</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.49993020021765</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>213.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.872541130829301</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8998078739705235</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7081141642943727</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.619308420118707</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.591549295774648</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.23139893741928</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>212.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.5600435166861554</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.7759435378864925</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.576135566445711</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.49766468639073214</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.9481132075471698</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.22232341928623398</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>213.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.92394869647835</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.8998078739705234</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7081141642943726</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.619308420118707</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.704225352112676</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.5727127704736306</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="n" s="314">
+        <v>212.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8731496098004407</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8597188838609455</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7679590274472162</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6417118687927749</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6037735849056602</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2212901676553907</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>212.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9160220992653073</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8219070248400323</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6920154351430718</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6232014869227724</v>
+      </c>
+      <c r="G20" t="n" s="319">
+        <v>2.7169811320754715</v>
+      </c>
+      <c r="H20" t="n" s="320">
+        <v>1.5653518416854106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.20187793427230047</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.07981220657276995</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.43661971830985913</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.20657276995305165</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.018779342723004695</v>
-      </c>
-      <c r="H23" t="n" s="345">
+      <c r="B25" t="n" s="339">
+        <v>0.05188679245283019</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.9481132075471698</v>
+      </c>
+      <c r="D25" t="n" s="341">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.2347417840375587</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.2112676056338028</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.11267605633802817</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.215962441314554</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.16901408450704225</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B26" t="n" s="339">
+        <v>0.05188679245283019</v>
+      </c>
+      <c r="C26" t="n" s="340">
+        <v>0.2028301886792453</v>
+      </c>
+      <c r="D26" t="n" s="341">
+        <v>0.08018867924528301</v>
+      </c>
+      <c r="E26" t="n" s="342">
+        <v>0.4386792452830189</v>
+      </c>
+      <c r="F26" t="n" s="343">
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="G26" t="n" s="344">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
+        <v>0.05188679245283019</v>
+      </c>
+      <c r="C27" t="n" s="340">
+        <v>0.2358490566037736</v>
+      </c>
+      <c r="D27" t="n" s="341">
+        <v>0.21226415094339623</v>
+      </c>
+      <c r="E27" t="n" s="342">
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="F27" t="n" s="343">
+        <v>0.2169811320754717</v>
+      </c>
+      <c r="G27" t="n" s="344">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9032842641593675</v>
+        <v>0.7251814157959713</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9035229400267675</v>
+        <v>0.8666026222167962</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8240235687637866</v>
+        <v>0.8144935920771987</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8240235687637865</v>
+        <v>0.6840907877214266</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.365158310975154</v>
+        <v>6.496399229265134</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.013233845354608609</v>
+        <v>0.015683300891738798</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.107981220657277</v>
+        <v>2.748427672955975</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2986139779767567</v>
+        <v>0.8123731425312457</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8240235687637865</v>
+        <v>0.6647375714196672</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8240235687637865</v>
+        <v>0.8380566105831198</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8240235687637865</v>
+        <v>0.8416965973007184</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6790148418782069</v>
+        <v>0.7266633209738049</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8240235687637865</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8240235687637865</v>
-      </c>
+        <v>0.7266633209738049</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.316983608366483</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.02189810769080084</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8240235687637865</v>
+        <v>0.7266633209738048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6790148418782069</v>
+        <v>0.34725759891322805</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8240235687637865</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6790148418782069</v>
-      </c>
+        <v>0.7958128999158478</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6608714707708081</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6608714707708079</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.8974690349579717</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.02188204523632899</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8240235687637865</v>
+        <v>0.660871470770808</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3833798514929696</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7986094419107599</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6647375714196669</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.664737571419667</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.965476085313197</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.023237281436984385</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6647375714196672</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>213.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9564120584258974</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9549930808031508</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8669020736628772</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8240235687637866</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.2347417840375585</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3809056892607299</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9535519060626987</v>
+        <v>0.7545356670248058</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9549930808031508</v>
+        <v>0.8725063190926501</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8669020736628772</v>
+        <v>0.7626117542950772</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8240235687637864</v>
+        <v>0.7130021278916806</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9812206572769953</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3386928336879564</v>
+        <v>0.2125037149024873</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>212.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9189452381794595</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8971896618237412</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8230514181961059</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7492778381772123</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.4339622641509435</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1521162718157083</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>212.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9354320488537687</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8957392042510443</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8198733901535146</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7502505335869427</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.858490566037736</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.3021213406179046</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.19248826291079812</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.06572769953051644</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.27230046948356806</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2535211267605634</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.215962441314554</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9528301886792453</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.22065727699530516</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.0892018779342723</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3286384976525822</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2112676056338028</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.15023474178403756</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.014150943396226415</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.30660377358490565</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4858490566037736</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.09905660377358491</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.014150943396226415</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.0330188679245283</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2688679245283019</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.21226415094339623</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.42452830188679247</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9800035944343024</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9808632287737327</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9624451363809758</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9624451363809761</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>51.255419066063986</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002678364682086078</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5300963919157051</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.962445136380976</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6532841463114998</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6554319237154766</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4874665219827674</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4874665219827672</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.902184122171146</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04732176810756179</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.8278301886792452</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2618458642978</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4874665219827671</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.962445136380976</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.962445136380976</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9263006405433951</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.962445136380976</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.962445136380976</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.962445136380976</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.4874665219827671</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.4874665219827671</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.23762361005397603</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.4874665219827671</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.4874665219827671</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.4874665219827671</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9263006405433951</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.962445136380976</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9263006405433951</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.962445136380976</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.23762361005397603</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.4874665219827671</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.23762361005397603</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.4874665219827671</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
-        <v>213.0</v>
-      </c>
-      <c r="C17" t="n" s="544">
-        <v>0.99000275066439</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9905667913828365</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9717884998610478</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9624451363809761</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.647887323943662</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4993576443713441</v>
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
+        <v>212.0</v>
+      </c>
+      <c r="C17" t="n" s="545">
+        <v>0.8767072937642121</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8623997106860505</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6021171530677162</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4874665219827671</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.3632075471698113</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.534798594113421</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
-        <v>213.0</v>
-      </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9911145306208693</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9905667913828365</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9717884998610478</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9624451363809758</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.6854460093896714</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.5899520620356025</v>
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
+        <v>212.0</v>
+      </c>
+      <c r="C18" t="n" s="545">
+        <v>0.8473677688297879</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8623997106860505</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.602117153067716</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4874665219827672</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.292452830188679</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3903320966577342</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8309859154929577</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.009389671361502348</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.009389671361502348</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.018779342723004695</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09389671361502347</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.03755868544600939</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4669811320754717</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.16037735849056603</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.19339622641509435</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8309859154929577</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.009389671361502348</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.04225352112676056</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.03755868544600939</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.07981220657276995</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.18396226415094338</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.0660377358490566</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.44339622641509435</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.17452830188679244</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6550820538128437</v>
+        <v>0.902994757189006</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6572251767366568</v>
+        <v>0.9032239317008988</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.48945300831557415</v>
+        <v>0.8235262947537083</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.48945300831557415</v>
+        <v>0.8235262947537083</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.9173671230565585</v>
+        <v>9.333133155496132</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04696605231626176</v>
+        <v>0.013305568909615297</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.8215962441314555</v>
+        <v>2.1132075471698113</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2621497408341507</v>
+        <v>1.2994403076394567</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.48945300831557426</v>
+        <v>0.8235262947537084</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.48945300831557426</v>
+        <v>0.8235262947537084</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.48945300831557426</v>
+        <v>0.8235262947537084</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.23956424734916548</v>
+        <v>0.6781955581507717</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.48945300831557426</v>
+        <v>0.8235262947537084</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.48945300831557426</v>
+        <v>0.8235262947537084</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.48945300831557426</v>
+        <v>0.8235262947537084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.23956424734916548</v>
+        <v>0.6781955581507717</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.48945300831557426</v>
+        <v>0.8235262947537084</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.23956424734916548</v>
+        <v>0.6781955581507717</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.48945300831557426</v>
+        <v>0.8235262947537084</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8771932629400432</v>
+        <v>0.9562577204922126</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8629753786509712</v>
+        <v>0.9548628945439518</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6037454992232819</v>
+        <v>0.866522317342283</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4894530083155743</v>
+        <v>0.8235262947537082</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.3568075117370892</v>
+        <v>2.240566037735849</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5340208436075935</v>
+        <v>1.3815492575614474</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8480389932788338</v>
+        <v>0.9534466907304271</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8629753786509712</v>
+        <v>0.9548628945439518</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6037454992232819</v>
+        <v>0.866522317342283</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4894530083155742</v>
+        <v>0.8235262947537084</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.2863849765258215</v>
+        <v>1.9858490566037736</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3898732744457365</v>
+        <v>1.340151981141821</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4694835680751174</v>
+        <v>0.19339622641509435</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.1596244131455399</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.046948356807511735</v>
+        <v>0.27358490566037735</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.19248826291079812</v>
+        <v>0.25471698113207547</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.13145539906103287</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.18309859154929578</v>
+        <v>0.22169811320754718</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.13615023474178403</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.06572769953051644</v>
+        <v>0.330188679245283</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4413145539906103</v>
+        <v>0.21226415094339623</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.17370892018779344</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7842421571193111</v>
+        <v>0.7318517458538208</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7941867346446818</v>
+        <v>0.768972282910284</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9003169218275562</v>
+        <v>0.8977719362389112</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2784354157289728</v>
+        <v>0.2497271800956111</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.8587733073161687</v>
+        <v>3.328484965341475</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.023052492932007687</v>
+        <v>0.02735288468562005</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.370422535211268</v>
+        <v>1.7636792452830188</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8019541639016552</v>
+        <v>0.6845980942547588</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.22865742322114618</v>
+        <v>0.10236512840946058</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7574452755236541</v>
+        <v>0.7219739531745073</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7652407503093124</v>
+        <v>0.7500427727709754</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.873874730809743</v>
+        <v>0.8749657592956536</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2658864056196081</v>
+        <v>0.25004277765022515</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.25968306389449</v>
+        <v>3.0006844814442797</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.026079714315823344</v>
+        <v>0.029020245127261826</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04968060648261777</v>
+        <v>0.05993496284236034</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.21206771094471252</v>
+        <v>0.16719706941238194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7594381611188726</v>
+        <v>0.7140492441914021</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7682427789365166</v>
+        <v>0.7472605282053209</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8748699892448609</v>
+        <v>0.8765366505833034</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.26917562335753364</v>
+        <v>0.24728039561731835</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.314860160176317</v>
+        <v>2.956643546412021</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02588599717657834</v>
+        <v>0.028009182215039518</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.049556618379897936</v>
+        <v>0.06096049195466895</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.22092726898905873</v>
+        <v>0.16719706941238194</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7559953316383962</v>
+        <v>0.7098717366482742</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7632631161411878</v>
+        <v>0.7426814724423682</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.872132113638467</v>
+        <v>0.8734666340809584</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.26374940951525055</v>
+        <v>0.24282156726318155</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.2240988548129716</v>
+        <v>2.8862339587110735</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02625407000451677</v>
+        <v>0.028347584547607045</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.050698866993770915</v>
+        <v>0.06281904886361729</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.21206771094471252</v>
+        <v>0.16719706941238194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7542296559743997</v>
+        <v>0.7328356623115873</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7630678528381368</v>
+        <v>0.7563597100151092</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8711641375706738</v>
+        <v>0.8890871323024073</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2635396782317591</v>
+        <v>0.25646942648554144</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.2206176408676086</v>
+        <v>3.1044114668473517</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.026439986084519952</v>
+        <v>0.028224687428357053</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.05015932747551684</v>
+        <v>0.08264540959422184</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.21979786517679994</v>
+        <v>0.14680028453693683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7586302970852731</v>
+        <v>0.7041409585399628</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7710698164903895</v>
+        <v>0.7399729901717288</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.869437020405473</v>
+        <v>0.8807852360632256</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.27232412366062453</v>
+        <v>0.2402341171148518</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.3681439671672657</v>
+        <v>2.8457543339840994</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.025926566211559306</v>
+        <v>0.030072895520152708</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04974996820453564</v>
+        <v>0.08340050939733518</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.2107550596274495</v>
+        <v>0.09876982094842304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7630090629514001</v>
+        <v>0.7088840085591104</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7755184870429938</v>
+        <v>0.743093423555532</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8738883165456769</v>
+        <v>0.8834430363062657</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2773817992836144</v>
+        <v>0.24321832530147042</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.4547098192069137</v>
+        <v>2.892465556311503</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.025509935440951252</v>
+        <v>0.029546044506388872</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.05012498309071506</v>
+        <v>0.08285459529207732</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.22092726898905873</v>
+        <v>0.10033632617233446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7839102540867737</v>
+        <v>0.714585121850317</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7965875181167826</v>
+        <v>0.7628992440533019</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8594144705710749</v>
+        <v>0.9004495220497029</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.30319627071910704</v>
+        <v>0.2633587584133635</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.916119162117677</v>
+        <v>3.2176162450734958</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.022681239894716893</v>
+        <v>0.029372822883702025</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.037935141076817176</v>
+        <v>0.08976953840857868</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2457693090756976</v>
+        <v>0.10149660946363422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.78224448458136</v>
+        <v>0.708196586637583</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.792877269425187</v>
+        <v>0.7587344467410284</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8579711729206724</v>
+        <v>0.8978335594397114</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.29841275394375083</v>
+        <v>0.2589427397655649</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.8280553139907463</v>
+        <v>3.144810506482091</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.022745093952222843</v>
+        <v>0.02990133353448325</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.04027377957705129</v>
+        <v>0.08852311952417262</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2457693090756976</v>
+        <v>0.10033632617233446</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7752908121881409</v>
+        <v>0.6885598671834218</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7852986348080495</v>
+        <v>0.7444647158243772</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9030712491341557</v>
+        <v>0.866602910094844</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.2889665435861259</v>
+        <v>0.24454523232883563</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.6576322377175647</v>
+        <v>2.913353896414266</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.024383356261250183</v>
+        <v>0.03182110218815704</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.056239125811344715</v>
+        <v>0.08377224361598666</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2340359748807325</v>
+        <v>0.10033632617233446</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7675807652675801</v>
+        <v>0.6963390502901865</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7792474815583041</v>
+        <v>0.750358118691518</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8981518009456436</v>
+        <v>0.8712619930906956</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2817215493723543</v>
+        <v>0.25035846101575787</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.5299596446693124</v>
+        <v>3.0057381187746386</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.02514508983818249</v>
+        <v>0.031061743837522623</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.055486758162241294</v>
+        <v>0.08421883833235116</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.2107550596274495</v>
+        <v>0.10149660946363422</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6373632548461982</v>
+        <v>0.5335737305687263</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6684056218060475</v>
+        <v>0.5678786265653797</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6416797884294315</v>
+        <v>0.5891658677136468</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5374269352253107</v>
+        <v>0.49249738549913563</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.4178403755868545</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1732317215763755</v>
+        <v>0.37635563783097137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6233556166681622</v>
+        <v>0.5595059580119314</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6484072701251102</v>
+        <v>0.5853291588239046</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6199176251097502</v>
+        <v>0.6076408457607847</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5054501794081981</v>
+        <v>0.3795951412849031</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.84037558685446</v>
+        <v>0.6509433962264151</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.3256767050052738</v>
+        <v>1.5022413133732784</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6503591936537926</v>
+        <v>0.5927695125084412</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.681398498240761</v>
+        <v>0.6134964894473283</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6575844553780337</v>
+        <v>0.6375828399673589</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5559085408785547</v>
+        <v>0.40815659943298277</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.431924882629108</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.1415458544127743</v>
+        <v>1.5930132260389342</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6581969402894698</v>
+        <v>0.39538415184776593</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6826736585676054</v>
+        <v>0.5272801715077752</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6603540656865128</v>
+        <v>0.47380354270784775</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5490251743556508</v>
+        <v>0.36871706245148295</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8215962441314555</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.312531504162772</v>
+        <v>0.2125037149024873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6311562128166106</v>
+        <v>0.569279897432496</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6292644765049897</v>
+        <v>0.6298419412142733</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6109096654492195</v>
+        <v>0.593701628049596</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5092404074243083</v>
+        <v>0.4383735186561337</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.2347417840375585</v>
+        <v>3.4339622641509435</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3809056892607299</v>
+        <v>1.1521162718157083</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5996640946276984</v>
+        <v>0.5551036303250617</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5985139504360026</v>
+        <v>0.610990087775325</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5748101160244664</v>
+        <v>0.5705464061268567</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4756588288309643</v>
+        <v>0.40173998917420417</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9812206572769953</v>
+        <v>3.858490566037736</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3386928336879564</v>
+        <v>1.3021213406179046</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.481270347859372</v>
+        <v>0.5629029971333576</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.4415626874435828</v>
+        <v>0.48375885272782454</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.4528441572703173</v>
+        <v>0.38431937358659896</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.31828717145008956</v>
+        <v>0.3791988307974276</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.647887323943662</v>
+        <v>1.3632075471698113</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.4993576443713441</v>
+        <v>1.534798594113421</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5113239558792129</v>
+        <v>0.5693858168256676</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.4706463354010354</v>
+        <v>0.511655745680957</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.483490847773981</v>
+        <v>0.42375677812149976</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.3422832790145389</v>
+        <v>0.4070047428695917</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.6854460093896714</v>
+        <v>2.292452830188679</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.5899520620356025</v>
+        <v>1.3903320966577342</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5435004730595812</v>
+        <v>0.6586942428132613</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5280790296875</v>
+        <v>0.6026077447071816</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4290533451026696</v>
+        <v>0.5807667587650859</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3869181428777875</v>
+        <v>0.5190354235646701</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.3568075117370892</v>
+        <v>2.240566037735849</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5340208436075935</v>
+        <v>1.3815492575614474</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5730224078873091</v>
+        <v>0.620868878491617</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5721283914985962</v>
+        <v>0.5658843901824011</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4875744855761074</v>
+        <v>0.5383033714871402</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4383670504662883</v>
+        <v>0.4767088575265698</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.2863849765258215</v>
+        <v>1.9858490566037736</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3898732744457365</v>
+        <v>1.340151981141821</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.051643192488262914</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.046948356807511735</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3051643192488263</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4835680751173709</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.09859154929577464</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.051643192488262914</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.014084507042253521</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.03286384976525822</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2676056338028169</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.2112676056338028</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4225352112676056</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.03286384976525822</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06572769953051644</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3286384976525822</v>
+        <v>0.04245283018867924</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4413145539906103</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.11737089201877934</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.03286384976525822</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.023474178403755867</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.046948356807511735</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.352112676056338</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.07511737089201878</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.4694835680751174</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.19248826291079812</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.06572769953051644</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.27230046948356806</v>
+        <v>0.014150943396226415</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2535211267605634</v>
+        <v>0.30660377358490565</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.215962441314554</v>
+        <v>0.4858490566037736</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.22065727699530516</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.0892018779342723</v>
+        <v>0.014150943396226415</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3286384976525822</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.2112676056338028</v>
+        <v>0.2688679245283019</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.15023474178403756</v>
+        <v>0.21226415094339623</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.42452830188679247</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8309859154929577</v>
+        <v>0.4669811320754717</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.009389671361502348</v>
+        <v>0.16037735849056603</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.009389671361502348</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.018779342723004695</v>
+        <v>0.19339622641509435</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09389671361502347</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.03755868544600939</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8309859154929577</v>
+        <v>0.18396226415094338</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.009389671361502348</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="D46" t="n" s="799">
+        <v>0.0660377358490566</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.44339622641509435</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.17452830188679244</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.04225352112676056</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.03755868544600939</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.07981220657276995</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4694835680751174</v>
+        <v>0.19339622641509435</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.1596244131455399</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.046948356807511735</v>
+        <v>0.27358490566037735</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.19248826291079812</v>
+        <v>0.25471698113207547</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.13145539906103287</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.18309859154929578</v>
+        <v>0.22169811320754718</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.13615023474178403</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.06572769953051644</v>
+        <v>0.330188679245283</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4413145539906103</v>
+        <v>0.21226415094339623</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.17370892018779344</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
